--- a/Results/ICC_waardes.xlsx
+++ b/Results/ICC_waardes.xlsx
@@ -463,25 +463,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.037</v>
+        <v>0.332</v>
       </c>
       <c r="C2" t="n">
-        <v>0.191</v>
+        <v>0.655</v>
       </c>
       <c r="D2" t="n">
-        <v>0.614</v>
+        <v>0.653</v>
       </c>
       <c r="E2" t="n">
-        <v>0.751</v>
+        <v>0.789</v>
       </c>
       <c r="F2" t="n">
-        <v>0.788</v>
+        <v>0.887</v>
       </c>
       <c r="G2" t="n">
-        <v>0.723</v>
+        <v>0.886</v>
       </c>
       <c r="H2" t="n">
-        <v>0.778</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="3">
@@ -491,25 +491,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.118</v>
+        <v>0.573</v>
       </c>
       <c r="C3" t="n">
-        <v>0.368</v>
+        <v>0.743</v>
       </c>
       <c r="D3" t="n">
-        <v>0.544</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.681</v>
+        <v>0.8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.787</v>
+        <v>0.848</v>
       </c>
       <c r="G3" t="n">
-        <v>0.743</v>
+        <v>0.742</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.677</v>
       </c>
     </row>
     <row r="4">
@@ -519,25 +519,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.114</v>
+        <v>0.543</v>
       </c>
       <c r="C4" t="n">
-        <v>0.378</v>
+        <v>0.713</v>
       </c>
       <c r="D4" t="n">
-        <v>0.54</v>
+        <v>0.82</v>
       </c>
       <c r="E4" t="n">
-        <v>0.701</v>
+        <v>0.819</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.864</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.784</v>
       </c>
       <c r="H4" t="n">
-        <v>0.734</v>
+        <v>0.705</v>
       </c>
     </row>
     <row r="5">
@@ -547,25 +547,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.532</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.714</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.785</v>
+        <v>0.751</v>
       </c>
       <c r="E5" t="n">
-        <v>0.622</v>
+        <v>0.857</v>
       </c>
       <c r="F5" t="n">
-        <v>0.779</v>
+        <v>0.885</v>
       </c>
       <c r="G5" t="n">
-        <v>0.864</v>
+        <v>0.855</v>
       </c>
       <c r="H5" t="n">
-        <v>0.843</v>
+        <v>0.803</v>
       </c>
     </row>
     <row r="6">
@@ -575,25 +575,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.172</v>
+        <v>0.439</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3</v>
+        <v>0.731</v>
       </c>
       <c r="D6" t="n">
-        <v>0.674</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.833</v>
+        <v>0.839</v>
       </c>
       <c r="F6" t="n">
-        <v>0.862</v>
+        <v>0.903</v>
       </c>
       <c r="G6" t="n">
-        <v>0.722</v>
+        <v>0.907</v>
       </c>
       <c r="H6" t="n">
-        <v>0.743</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="7">
@@ -603,25 +603,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.094</v>
+        <v>0.335</v>
       </c>
       <c r="C7" t="n">
-        <v>0.181</v>
+        <v>0.543</v>
       </c>
       <c r="D7" t="n">
-        <v>0.331</v>
+        <v>0.553</v>
       </c>
       <c r="E7" t="n">
-        <v>0.366</v>
+        <v>0.704</v>
       </c>
       <c r="F7" t="n">
-        <v>0.571</v>
+        <v>0.806</v>
       </c>
       <c r="G7" t="n">
-        <v>0.828</v>
+        <v>0.872</v>
       </c>
       <c r="H7" t="n">
-        <v>0.668</v>
+        <v>0.779</v>
       </c>
     </row>
     <row r="8">
@@ -631,25 +631,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.514</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.64</v>
+        <v>0.768</v>
       </c>
       <c r="D8" t="n">
-        <v>0.652</v>
+        <v>0.827</v>
       </c>
       <c r="E8" t="n">
-        <v>0.651</v>
+        <v>0.749</v>
       </c>
       <c r="F8" t="n">
-        <v>0.667</v>
+        <v>0.708</v>
       </c>
       <c r="G8" t="n">
-        <v>0.771</v>
+        <v>0.785</v>
       </c>
       <c r="H8" t="n">
-        <v>0.569</v>
+        <v>0.585</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.473</v>
       </c>
       <c r="C9" t="n">
-        <v>0.051</v>
+        <v>0.642</v>
       </c>
       <c r="D9" t="n">
-        <v>0.363</v>
+        <v>0.428</v>
       </c>
       <c r="E9" t="n">
-        <v>0.506</v>
+        <v>0.702</v>
       </c>
       <c r="F9" t="n">
-        <v>0.646</v>
+        <v>0.767</v>
       </c>
       <c r="G9" t="n">
-        <v>0.668</v>
+        <v>0.777</v>
       </c>
       <c r="H9" t="n">
-        <v>0.715</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -687,25 +687,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.075</v>
+        <v>0.411</v>
       </c>
       <c r="C10" t="n">
-        <v>0.14</v>
+        <v>0.616</v>
       </c>
       <c r="D10" t="n">
-        <v>0.396</v>
+        <v>0.446</v>
       </c>
       <c r="E10" t="n">
-        <v>0.389</v>
+        <v>0.776</v>
       </c>
       <c r="F10" t="n">
-        <v>0.496</v>
+        <v>0.899</v>
       </c>
       <c r="G10" t="n">
-        <v>0.34</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0.453</v>
+        <v>0.712</v>
       </c>
     </row>
     <row r="11">
@@ -715,25 +715,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.162</v>
+        <v>0.255</v>
       </c>
       <c r="C11" t="n">
-        <v>0.441</v>
+        <v>0.639</v>
       </c>
       <c r="D11" t="n">
-        <v>0.452</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.426</v>
+        <v>0.556</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.511</v>
       </c>
       <c r="G11" t="n">
-        <v>0.737</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0.632</v>
+        <v>0.585</v>
       </c>
     </row>
     <row r="12">
@@ -743,25 +743,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.011</v>
+        <v>0.363</v>
       </c>
       <c r="C12" t="n">
-        <v>0.064</v>
+        <v>0.463</v>
       </c>
       <c r="D12" t="n">
-        <v>0.142</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.366</v>
+        <v>0.824</v>
       </c>
       <c r="F12" t="n">
-        <v>0.454</v>
+        <v>0.91</v>
       </c>
       <c r="G12" t="n">
-        <v>0.068</v>
+        <v>0.851</v>
       </c>
       <c r="H12" t="n">
-        <v>0.178</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="13">
@@ -771,25 +771,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.061</v>
+        <v>0.607</v>
       </c>
       <c r="C13" t="n">
-        <v>0.233</v>
+        <v>0.734</v>
       </c>
       <c r="D13" t="n">
-        <v>0.529</v>
+        <v>0.831</v>
       </c>
       <c r="E13" t="n">
-        <v>0.736</v>
+        <v>0.861</v>
       </c>
       <c r="F13" t="n">
-        <v>0.838</v>
+        <v>0.896</v>
       </c>
       <c r="G13" t="n">
-        <v>0.609</v>
+        <v>0.868</v>
       </c>
       <c r="H13" t="n">
-        <v>0.697</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -799,25 +799,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.268</v>
+        <v>0.446</v>
       </c>
       <c r="C14" t="n">
-        <v>0.705</v>
+        <v>0.645</v>
       </c>
       <c r="D14" t="n">
-        <v>0.721</v>
+        <v>0.68</v>
       </c>
       <c r="E14" t="n">
-        <v>0.614</v>
+        <v>0.658</v>
       </c>
       <c r="F14" t="n">
-        <v>0.643</v>
+        <v>0.608</v>
       </c>
       <c r="G14" t="n">
-        <v>0.781</v>
+        <v>0.719</v>
       </c>
       <c r="H14" t="n">
-        <v>0.641</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="15">
@@ -827,25 +827,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.012</v>
+        <v>0.346</v>
       </c>
       <c r="C15" t="n">
-        <v>0.219</v>
+        <v>0.761</v>
       </c>
       <c r="D15" t="n">
-        <v>0.552</v>
+        <v>0.601</v>
       </c>
       <c r="E15" t="n">
-        <v>0.61</v>
+        <v>0.695</v>
       </c>
       <c r="F15" t="n">
-        <v>0.735</v>
+        <v>0.737</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.851</v>
       </c>
       <c r="H15" t="n">
-        <v>0.524</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -855,25 +855,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.321</v>
+        <v>0.587</v>
       </c>
       <c r="C16" t="n">
-        <v>0.434</v>
+        <v>0.8</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.731</v>
       </c>
       <c r="E16" t="n">
-        <v>0.82</v>
+        <v>0.867</v>
       </c>
       <c r="F16" t="n">
-        <v>0.891</v>
+        <v>0.886</v>
       </c>
       <c r="G16" t="n">
-        <v>0.729</v>
+        <v>0.897</v>
       </c>
       <c r="H16" t="n">
-        <v>0.658</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="17">
@@ -883,25 +883,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.083</v>
+        <v>0.639</v>
       </c>
       <c r="C17" t="n">
-        <v>0.208</v>
+        <v>0.723</v>
       </c>
       <c r="D17" t="n">
-        <v>0.37</v>
+        <v>0.728</v>
       </c>
       <c r="E17" t="n">
-        <v>0.521</v>
+        <v>0.784</v>
       </c>
       <c r="F17" t="n">
-        <v>0.513</v>
+        <v>0.581</v>
       </c>
       <c r="G17" t="n">
-        <v>0.603</v>
+        <v>0.418</v>
       </c>
       <c r="H17" t="n">
-        <v>0.447</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="18">
@@ -911,25 +911,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.147</v>
+        <v>0.251</v>
       </c>
       <c r="C18" t="n">
-        <v>0.127</v>
+        <v>0.6</v>
       </c>
       <c r="D18" t="n">
-        <v>0.294</v>
+        <v>0.58</v>
       </c>
       <c r="E18" t="n">
-        <v>0.544</v>
+        <v>0.791</v>
       </c>
       <c r="F18" t="n">
-        <v>0.62</v>
+        <v>0.826</v>
       </c>
       <c r="G18" t="n">
-        <v>0.639</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0.474</v>
+        <v>0.714</v>
       </c>
     </row>
     <row r="19">
@@ -939,25 +939,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.033</v>
+        <v>0.381</v>
       </c>
       <c r="C19" t="n">
-        <v>0.318</v>
+        <v>0.624</v>
       </c>
       <c r="D19" t="n">
-        <v>0.322</v>
+        <v>0.674</v>
       </c>
       <c r="E19" t="n">
-        <v>0.379</v>
+        <v>0.844</v>
       </c>
       <c r="F19" t="n">
-        <v>0.699</v>
+        <v>0.872</v>
       </c>
       <c r="G19" t="n">
-        <v>0.875</v>
+        <v>0.913</v>
       </c>
       <c r="H19" t="n">
-        <v>0.768</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="20">
@@ -967,25 +967,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.024</v>
+        <v>0.353</v>
       </c>
       <c r="C20" t="n">
-        <v>0.048</v>
+        <v>0.674</v>
       </c>
       <c r="D20" t="n">
-        <v>0.103</v>
+        <v>0.678</v>
       </c>
       <c r="E20" t="n">
-        <v>0.103</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>0.191</v>
+        <v>0.874</v>
       </c>
       <c r="G20" t="n">
-        <v>0.319</v>
+        <v>0.951</v>
       </c>
       <c r="H20" t="n">
-        <v>0.242</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="21">
@@ -995,25 +995,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.002</v>
+        <v>0.275</v>
       </c>
       <c r="C21" t="n">
-        <v>0.041</v>
+        <v>0.609</v>
       </c>
       <c r="D21" t="n">
-        <v>0.192</v>
+        <v>0.675</v>
       </c>
       <c r="E21" t="n">
-        <v>0.36</v>
+        <v>0.669</v>
       </c>
       <c r="F21" t="n">
-        <v>0.218</v>
+        <v>0.706</v>
       </c>
       <c r="G21" t="n">
-        <v>0.148</v>
+        <v>0.721</v>
       </c>
       <c r="H21" t="n">
-        <v>0.246</v>
+        <v>0.768</v>
       </c>
     </row>
     <row r="22">
@@ -1023,25 +1023,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.243</v>
+        <v>0.22</v>
       </c>
       <c r="C22" t="n">
-        <v>0.278</v>
+        <v>0.428</v>
       </c>
       <c r="D22" t="n">
-        <v>0.508</v>
+        <v>0.594</v>
       </c>
       <c r="E22" t="n">
-        <v>0.572</v>
+        <v>0.745</v>
       </c>
       <c r="F22" t="n">
-        <v>0.641</v>
+        <v>0.668</v>
       </c>
       <c r="G22" t="n">
-        <v>0.607</v>
+        <v>0.66</v>
       </c>
       <c r="H22" t="n">
-        <v>0.467</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="23">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.068</v>
+        <v>0.44</v>
       </c>
       <c r="C23" t="n">
-        <v>0.282</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.453</v>
+        <v>0.634</v>
       </c>
       <c r="E23" t="n">
-        <v>0.74</v>
+        <v>0.845</v>
       </c>
       <c r="F23" t="n">
-        <v>0.745</v>
+        <v>0.834</v>
       </c>
       <c r="G23" t="n">
-        <v>0.633</v>
+        <v>0.835</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.838</v>
       </c>
     </row>
     <row r="24">
@@ -1079,25 +1079,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.18</v>
+        <v>0.03</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.149</v>
+        <v>0.283</v>
       </c>
       <c r="D24" t="n">
-        <v>0.077</v>
+        <v>0.348</v>
       </c>
       <c r="E24" t="n">
-        <v>0.305</v>
+        <v>0.468</v>
       </c>
       <c r="F24" t="n">
-        <v>0.409</v>
+        <v>0.638</v>
       </c>
       <c r="G24" t="n">
-        <v>0.48</v>
+        <v>0.667</v>
       </c>
       <c r="H24" t="n">
-        <v>0.652</v>
+        <v>0.669</v>
       </c>
     </row>
     <row r="25">
@@ -1107,25 +1107,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.043</v>
+        <v>0.361</v>
       </c>
       <c r="C25" t="n">
-        <v>0.129</v>
+        <v>0.536</v>
       </c>
       <c r="D25" t="n">
-        <v>0.513</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.541</v>
+        <v>0.707</v>
       </c>
       <c r="F25" t="n">
-        <v>0.753</v>
+        <v>0.852</v>
       </c>
       <c r="G25" t="n">
-        <v>0.805</v>
+        <v>0.827</v>
       </c>
       <c r="H25" t="n">
-        <v>0.745</v>
+        <v>0.734</v>
       </c>
     </row>
     <row r="26">
@@ -1135,25 +1135,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.133</v>
+        <v>0.284</v>
       </c>
       <c r="C26" t="n">
-        <v>0.137</v>
+        <v>0.474</v>
       </c>
       <c r="D26" t="n">
-        <v>0.367</v>
+        <v>0.501</v>
       </c>
       <c r="E26" t="n">
-        <v>0.477</v>
+        <v>0.606</v>
       </c>
       <c r="F26" t="n">
-        <v>0.663</v>
+        <v>0.744</v>
       </c>
       <c r="G26" t="n">
-        <v>0.822</v>
+        <v>0.8</v>
       </c>
       <c r="H26" t="n">
-        <v>0.732</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="27">
@@ -1163,25 +1163,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.351</v>
       </c>
       <c r="C27" t="n">
-        <v>0.142</v>
+        <v>0.533</v>
       </c>
       <c r="D27" t="n">
-        <v>0.306</v>
+        <v>0.529</v>
       </c>
       <c r="E27" t="n">
-        <v>0.358</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>0.573</v>
+        <v>0.794</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.856</v>
       </c>
       <c r="H27" t="n">
-        <v>0.622</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="28">
@@ -1191,25 +1191,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.288</v>
+        <v>0.806</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.141</v>
+        <v>0.863</v>
       </c>
       <c r="D28" t="n">
-        <v>0.168</v>
+        <v>0.792</v>
       </c>
       <c r="E28" t="n">
-        <v>0.38</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>0.703</v>
+        <v>0.925</v>
       </c>
       <c r="G28" t="n">
-        <v>0.643</v>
+        <v>0.918</v>
       </c>
       <c r="H28" t="n">
-        <v>0.593</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="29">
@@ -1219,25 +1219,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.022</v>
+        <v>0.541</v>
       </c>
       <c r="C29" t="n">
-        <v>0.007</v>
+        <v>0.585</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5</v>
+        <v>0.352</v>
       </c>
       <c r="E29" t="n">
-        <v>0.255</v>
+        <v>0.391</v>
       </c>
       <c r="F29" t="n">
-        <v>0.184</v>
+        <v>0.262</v>
       </c>
       <c r="G29" t="n">
-        <v>0.467</v>
+        <v>0.48</v>
       </c>
       <c r="H29" t="n">
-        <v>0.337</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="30">
@@ -1247,25 +1247,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.161</v>
+        <v>0.486</v>
       </c>
       <c r="C30" t="n">
-        <v>0.249</v>
+        <v>0.667</v>
       </c>
       <c r="D30" t="n">
-        <v>0.74</v>
+        <v>0.43</v>
       </c>
       <c r="E30" t="n">
-        <v>0.419</v>
+        <v>0.514</v>
       </c>
       <c r="F30" t="n">
-        <v>0.357</v>
+        <v>0.3</v>
       </c>
       <c r="G30" t="n">
-        <v>0.595</v>
+        <v>0.431</v>
       </c>
       <c r="H30" t="n">
-        <v>0.466</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="31">
@@ -1275,25 +1275,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.4</v>
+        <v>0.645</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.321</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.138</v>
+        <v>0.493</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.158</v>
+        <v>0.599</v>
       </c>
       <c r="F31" t="n">
-        <v>0.167</v>
+        <v>0.572</v>
       </c>
       <c r="G31" t="n">
-        <v>0.427</v>
+        <v>0.704</v>
       </c>
       <c r="H31" t="n">
-        <v>0.544</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="32">
@@ -1303,25 +1303,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.026</v>
+        <v>-0.082</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.096</v>
+        <v>-0.005</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.478</v>
+        <v>0.032</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.583</v>
+        <v>0.097</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.466</v>
+        <v>0.246</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.169</v>
+        <v>0.068</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.331</v>
+        <v>-0.109</v>
       </c>
     </row>
     <row r="33">
@@ -1331,25 +1331,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.367</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.304</v>
+        <v>0.724</v>
       </c>
       <c r="D33" t="n">
-        <v>0.043</v>
+        <v>0.699</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.753</v>
       </c>
       <c r="F33" t="n">
-        <v>0.718</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>0.736</v>
+        <v>0.843</v>
       </c>
       <c r="H33" t="n">
-        <v>0.822</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="34">
@@ -1359,25 +1359,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.349</v>
+        <v>0.727</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.012</v>
+        <v>0.659</v>
       </c>
       <c r="D34" t="n">
-        <v>0.397</v>
+        <v>0.618</v>
       </c>
       <c r="E34" t="n">
-        <v>0.556</v>
+        <v>0.65</v>
       </c>
       <c r="F34" t="n">
-        <v>0.678</v>
+        <v>0.845</v>
       </c>
       <c r="G34" t="n">
-        <v>0.657</v>
+        <v>0.885</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="35">
@@ -1387,25 +1387,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.598</v>
+        <v>0.909</v>
       </c>
       <c r="C35" t="n">
-        <v>0.634</v>
+        <v>0.931</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.923</v>
       </c>
       <c r="E35" t="n">
-        <v>0.576</v>
+        <v>0.946</v>
       </c>
       <c r="F35" t="n">
-        <v>0.709</v>
+        <v>0.649</v>
       </c>
       <c r="G35" t="n">
-        <v>0.513</v>
+        <v>0.446</v>
       </c>
       <c r="H35" t="n">
-        <v>0.55</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -1415,25 +1415,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.658</v>
+        <v>0.888</v>
       </c>
       <c r="C36" t="n">
-        <v>0.665</v>
+        <v>0.931</v>
       </c>
       <c r="D36" t="n">
-        <v>0.827</v>
+        <v>0.919</v>
       </c>
       <c r="E36" t="n">
-        <v>0.49</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>0.649</v>
+        <v>0.613</v>
       </c>
       <c r="G36" t="n">
-        <v>0.467</v>
+        <v>0.428</v>
       </c>
       <c r="H36" t="n">
-        <v>0.518</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="37">
@@ -1443,25 +1443,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.835</v>
+        <v>0.727</v>
       </c>
       <c r="C37" t="n">
-        <v>0.707</v>
+        <v>0.887</v>
       </c>
       <c r="D37" t="n">
-        <v>0.859</v>
+        <v>0.93</v>
       </c>
       <c r="E37" t="n">
-        <v>0.622</v>
+        <v>0.885</v>
       </c>
       <c r="F37" t="n">
-        <v>0.665</v>
+        <v>0.538</v>
       </c>
       <c r="G37" t="n">
-        <v>0.697</v>
+        <v>0.485</v>
       </c>
       <c r="H37" t="n">
-        <v>0.712</v>
+        <v>0.702</v>
       </c>
     </row>
     <row r="38">
@@ -1471,25 +1471,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.36</v>
+        <v>0.483</v>
       </c>
       <c r="C38" t="n">
-        <v>0.503</v>
+        <v>0.678</v>
       </c>
       <c r="D38" t="n">
-        <v>0.784</v>
+        <v>0.75</v>
       </c>
       <c r="E38" t="n">
-        <v>0.335</v>
+        <v>0.869</v>
       </c>
       <c r="F38" t="n">
-        <v>0.333</v>
+        <v>0.372</v>
       </c>
       <c r="G38" t="n">
-        <v>0.141</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0.103</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="39">
@@ -1499,25 +1499,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.789</v>
+        <v>0.314</v>
       </c>
       <c r="C39" t="n">
-        <v>0.727</v>
+        <v>0.681</v>
       </c>
       <c r="D39" t="n">
-        <v>0.848</v>
+        <v>0.738</v>
       </c>
       <c r="E39" t="n">
-        <v>0.353</v>
+        <v>0.467</v>
       </c>
       <c r="F39" t="n">
-        <v>0.318</v>
+        <v>0.44</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.533</v>
       </c>
       <c r="H39" t="n">
-        <v>0.506</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="40">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.762</v>
+        <v>0.203</v>
       </c>
       <c r="C40" t="n">
-        <v>0.792</v>
+        <v>0.672</v>
       </c>
       <c r="D40" t="n">
-        <v>0.879</v>
+        <v>0.739</v>
       </c>
       <c r="E40" t="n">
-        <v>0.177</v>
+        <v>0.392</v>
       </c>
       <c r="F40" t="n">
-        <v>0.146</v>
+        <v>0.5</v>
       </c>
       <c r="G40" t="n">
-        <v>0.643</v>
+        <v>0.661</v>
       </c>
       <c r="H40" t="n">
-        <v>0.462</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="41">
@@ -1555,25 +1555,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.283</v>
+        <v>0.469</v>
       </c>
       <c r="C41" t="n">
-        <v>0.435</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.646</v>
+        <v>0.769</v>
       </c>
       <c r="E41" t="n">
-        <v>0.402</v>
+        <v>0.759</v>
       </c>
       <c r="F41" t="n">
-        <v>0.424</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>0.661</v>
+        <v>0.55</v>
       </c>
       <c r="H41" t="n">
-        <v>0.587</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="42">
@@ -1583,25 +1583,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.547</v>
+        <v>0.627</v>
       </c>
       <c r="C42" t="n">
-        <v>0.507</v>
+        <v>0.762</v>
       </c>
       <c r="D42" t="n">
-        <v>0.603</v>
+        <v>0.73</v>
       </c>
       <c r="E42" t="n">
-        <v>0.659</v>
+        <v>0.836</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="G42" t="n">
-        <v>0.618</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>0.631</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="43">
@@ -1611,25 +1611,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.503</v>
+        <v>0.636</v>
       </c>
       <c r="C43" t="n">
-        <v>0.502</v>
+        <v>0.772</v>
       </c>
       <c r="D43" t="n">
-        <v>0.613</v>
+        <v>0.773</v>
       </c>
       <c r="E43" t="n">
-        <v>0.623</v>
+        <v>0.876</v>
       </c>
       <c r="F43" t="n">
-        <v>0.788</v>
+        <v>0.755</v>
       </c>
       <c r="G43" t="n">
-        <v>0.651</v>
+        <v>0.584</v>
       </c>
       <c r="H43" t="n">
-        <v>0.671</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="44">
@@ -1639,25 +1639,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.473</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.524</v>
+        <v>0.89</v>
       </c>
       <c r="D44" t="n">
-        <v>0.633</v>
+        <v>0.925</v>
       </c>
       <c r="E44" t="n">
-        <v>0.583</v>
+        <v>0.973</v>
       </c>
       <c r="F44" t="n">
-        <v>0.669</v>
+        <v>0.668</v>
       </c>
       <c r="G44" t="n">
-        <v>0.497</v>
+        <v>0.426</v>
       </c>
       <c r="H44" t="n">
-        <v>0.509</v>
+        <v>0.515</v>
       </c>
     </row>
     <row r="45">
@@ -1667,25 +1667,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.36</v>
+        <v>0.631</v>
       </c>
       <c r="C45" t="n">
-        <v>0.642</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.717</v>
+        <v>0.891</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.868</v>
       </c>
       <c r="F45" t="n">
-        <v>0.857</v>
+        <v>0.887</v>
       </c>
       <c r="G45" t="n">
-        <v>0.835</v>
+        <v>0.834</v>
       </c>
       <c r="H45" t="n">
-        <v>0.782</v>
+        <v>0.773</v>
       </c>
     </row>
     <row r="46">
@@ -1695,25 +1695,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.033</v>
+        <v>0.671</v>
       </c>
       <c r="C46" t="n">
-        <v>0.098</v>
+        <v>0.621</v>
       </c>
       <c r="D46" t="n">
-        <v>0.257</v>
+        <v>0.737</v>
       </c>
       <c r="E46" t="n">
-        <v>0.232</v>
+        <v>0.656</v>
       </c>
       <c r="F46" t="n">
-        <v>0.308</v>
+        <v>0.643</v>
       </c>
       <c r="G46" t="n">
-        <v>0.206</v>
+        <v>0.731</v>
       </c>
       <c r="H46" t="n">
-        <v>0.335</v>
+        <v>0.774</v>
       </c>
     </row>
     <row r="47">
@@ -1723,25 +1723,25 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.112</v>
+        <v>0.537</v>
       </c>
       <c r="C47" t="n">
-        <v>0.28</v>
+        <v>0.725</v>
       </c>
       <c r="D47" t="n">
-        <v>0.348</v>
+        <v>0.825</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.793</v>
       </c>
       <c r="F47" t="n">
-        <v>0.61</v>
+        <v>0.823</v>
       </c>
       <c r="G47" t="n">
-        <v>0.724</v>
+        <v>0.743</v>
       </c>
       <c r="H47" t="n">
-        <v>0.738</v>
+        <v>0.657</v>
       </c>
     </row>
     <row r="48">
@@ -1751,25 +1751,25 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.584</v>
+        <v>0.795</v>
       </c>
       <c r="C48" t="n">
-        <v>0.632</v>
+        <v>0.729</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.743</v>
       </c>
       <c r="E48" t="n">
-        <v>0.728</v>
+        <v>0.8</v>
       </c>
       <c r="F48" t="n">
-        <v>0.762</v>
+        <v>0.844</v>
       </c>
       <c r="G48" t="n">
-        <v>0.911</v>
+        <v>0.908</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="49">
@@ -1779,25 +1779,25 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.211</v>
+        <v>0.438</v>
       </c>
       <c r="C49" t="n">
-        <v>0.365</v>
+        <v>0.473</v>
       </c>
       <c r="D49" t="n">
-        <v>0.37</v>
+        <v>0.459</v>
       </c>
       <c r="E49" t="n">
-        <v>0.58</v>
+        <v>0.617</v>
       </c>
       <c r="F49" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.606</v>
       </c>
       <c r="G49" t="n">
-        <v>0.82</v>
+        <v>0.831</v>
       </c>
       <c r="H49" t="n">
-        <v>0.879</v>
+        <v>0.864</v>
       </c>
     </row>
     <row r="50">
@@ -1807,25 +1807,25 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.361</v>
+        <v>0.547</v>
       </c>
       <c r="C50" t="n">
-        <v>0.321</v>
+        <v>0.44</v>
       </c>
       <c r="D50" t="n">
-        <v>0.359</v>
+        <v>0.479</v>
       </c>
       <c r="E50" t="n">
-        <v>0.48</v>
+        <v>0.633</v>
       </c>
       <c r="F50" t="n">
-        <v>0.491</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>0.787</v>
+        <v>0.84</v>
       </c>
       <c r="H50" t="n">
-        <v>0.861</v>
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>

--- a/Results/ICC_waardes.xlsx
+++ b/Results/ICC_waardes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,1288 +543,1764 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ICC_sedentairy_count</t>
+          <t>ICC_transitions_0_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.601</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.644</v>
       </c>
       <c r="D5" t="n">
-        <v>0.751</v>
+        <v>0.647</v>
       </c>
       <c r="E5" t="n">
-        <v>0.857</v>
+        <v>0.635</v>
       </c>
       <c r="F5" t="n">
-        <v>0.885</v>
+        <v>0.616</v>
       </c>
       <c r="G5" t="n">
-        <v>0.855</v>
+        <v>0.779</v>
       </c>
       <c r="H5" t="n">
-        <v>0.803</v>
+        <v>0.672</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ICC_sedentairy_perc</t>
+          <t>ICC_transitions_0_2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="C6" t="n">
-        <v>0.731</v>
+        <v>0.447</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.453</v>
       </c>
       <c r="E6" t="n">
-        <v>0.839</v>
+        <v>0.464</v>
       </c>
       <c r="F6" t="n">
-        <v>0.903</v>
+        <v>0.556</v>
       </c>
       <c r="G6" t="n">
-        <v>0.907</v>
+        <v>0.304</v>
       </c>
       <c r="H6" t="n">
-        <v>0.801</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ICC_epochs_sedentairy_perc</t>
+          <t>ICC_transitions_0_3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.335</v>
+        <v>-0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.543</v>
+        <v>-0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.553</v>
+        <v>-0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.704</v>
+        <v>-0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.806</v>
+        <v>-0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.872</v>
+        <v>-0.058</v>
       </c>
       <c r="H7" t="n">
-        <v>0.779</v>
+        <v>-0.07099999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ICC_weight_median_sedentairy</t>
+          <t>ICC_transitions_1_0</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.595</v>
       </c>
       <c r="C8" t="n">
-        <v>0.768</v>
+        <v>0.617</v>
       </c>
       <c r="D8" t="n">
-        <v>0.827</v>
+        <v>0.636</v>
       </c>
       <c r="E8" t="n">
-        <v>0.749</v>
+        <v>0.645</v>
       </c>
       <c r="F8" t="n">
-        <v>0.708</v>
+        <v>0.646</v>
       </c>
       <c r="G8" t="n">
-        <v>0.785</v>
+        <v>0.801</v>
       </c>
       <c r="H8" t="n">
-        <v>0.585</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ICC_alfa_sedentairy</t>
+          <t>ICC_transitions_1_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.473</v>
+        <v>0.228</v>
       </c>
       <c r="C9" t="n">
-        <v>0.642</v>
+        <v>0.464</v>
       </c>
       <c r="D9" t="n">
-        <v>0.428</v>
+        <v>0.527</v>
       </c>
       <c r="E9" t="n">
-        <v>0.702</v>
+        <v>0.703</v>
       </c>
       <c r="F9" t="n">
-        <v>0.767</v>
+        <v>0.886</v>
       </c>
       <c r="G9" t="n">
-        <v>0.777</v>
+        <v>0.869</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ICC_sigma_sedentairy</t>
+          <t>ICC_transitions_1_3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.411</v>
+        <v>0.315</v>
       </c>
       <c r="C10" t="n">
-        <v>0.616</v>
+        <v>0.577</v>
       </c>
       <c r="D10" t="n">
-        <v>0.446</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.776</v>
+        <v>0.609</v>
       </c>
       <c r="F10" t="n">
-        <v>0.899</v>
+        <v>0.556</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.712</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ICC_gini_sedentairy</t>
+          <t>ICC_transitions_2_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.255</v>
+        <v>0.496</v>
       </c>
       <c r="C11" t="n">
-        <v>0.639</v>
+        <v>0.586</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.501</v>
       </c>
       <c r="E11" t="n">
-        <v>0.556</v>
+        <v>0.537</v>
       </c>
       <c r="F11" t="n">
-        <v>0.511</v>
+        <v>0.585</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.41</v>
       </c>
       <c r="H11" t="n">
-        <v>0.585</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ICC_sedentairy_median_length</t>
+          <t>ICC_transitions_2_1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.363</v>
+        <v>0.283</v>
       </c>
       <c r="C12" t="n">
-        <v>0.463</v>
+        <v>0.505</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.548</v>
       </c>
       <c r="E12" t="n">
-        <v>0.824</v>
+        <v>0.694</v>
       </c>
       <c r="F12" t="n">
-        <v>0.91</v>
+        <v>0.887</v>
       </c>
       <c r="G12" t="n">
-        <v>0.851</v>
+        <v>0.872</v>
       </c>
       <c r="H12" t="n">
-        <v>0.625</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ICC_epochs_sedentairy_average_length</t>
+          <t>ICC_transitions_2_3</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.607</v>
+        <v>0.645</v>
       </c>
       <c r="C13" t="n">
-        <v>0.734</v>
+        <v>0.831</v>
       </c>
       <c r="D13" t="n">
-        <v>0.831</v>
+        <v>0.795</v>
       </c>
       <c r="E13" t="n">
-        <v>0.861</v>
+        <v>0.847</v>
       </c>
       <c r="F13" t="n">
-        <v>0.896</v>
+        <v>0.33</v>
       </c>
       <c r="G13" t="n">
-        <v>0.868</v>
+        <v>0.272</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.541</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ICC_epochs_sedentairy_max_length</t>
+          <t>ICC_transitions_3_0</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.446</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.645</v>
+        <v>-0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.68</v>
+        <v>-0.033</v>
       </c>
       <c r="E14" t="n">
-        <v>0.658</v>
+        <v>-0.041</v>
       </c>
       <c r="F14" t="n">
-        <v>0.608</v>
+        <v>-0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.719</v>
+        <v>-0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.452</v>
+        <v>-0.07099999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ICC_light_count</t>
+          <t>ICC_transitions_3_1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.346</v>
+        <v>0.099</v>
       </c>
       <c r="C15" t="n">
-        <v>0.761</v>
+        <v>0.206</v>
       </c>
       <c r="D15" t="n">
-        <v>0.601</v>
+        <v>0.259</v>
       </c>
       <c r="E15" t="n">
-        <v>0.695</v>
+        <v>0.235</v>
       </c>
       <c r="F15" t="n">
-        <v>0.737</v>
+        <v>0.271</v>
       </c>
       <c r="G15" t="n">
-        <v>0.851</v>
+        <v>0.364</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.605</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ICC_light_perc</t>
+          <t>ICC_transitions_3_2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.587</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8</v>
+        <v>0.886</v>
       </c>
       <c r="D16" t="n">
-        <v>0.731</v>
+        <v>0.923</v>
       </c>
       <c r="E16" t="n">
-        <v>0.867</v>
+        <v>0.902</v>
       </c>
       <c r="F16" t="n">
-        <v>0.886</v>
+        <v>0.519</v>
       </c>
       <c r="G16" t="n">
-        <v>0.897</v>
+        <v>0.42</v>
       </c>
       <c r="H16" t="n">
-        <v>0.826</v>
+        <v>0.6830000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ICC_epochs_light_perc</t>
+          <t>ICC_sedentairy_count</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.639</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.723</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.728</v>
+        <v>0.751</v>
       </c>
       <c r="E17" t="n">
-        <v>0.784</v>
+        <v>0.857</v>
       </c>
       <c r="F17" t="n">
-        <v>0.581</v>
+        <v>0.885</v>
       </c>
       <c r="G17" t="n">
-        <v>0.418</v>
+        <v>0.855</v>
       </c>
       <c r="H17" t="n">
-        <v>0.62</v>
+        <v>0.803</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ICC_weight_median_light</t>
+          <t>ICC_sedentairy_perc</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.251</v>
+        <v>0.439</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6</v>
+        <v>0.731</v>
       </c>
       <c r="D18" t="n">
-        <v>0.58</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.791</v>
+        <v>0.839</v>
       </c>
       <c r="F18" t="n">
-        <v>0.826</v>
+        <v>0.903</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.907</v>
       </c>
       <c r="H18" t="n">
-        <v>0.714</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ICC_alfa_light</t>
+          <t>ICC_epochs_sedentairy_perc</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.381</v>
+        <v>0.335</v>
       </c>
       <c r="C19" t="n">
-        <v>0.624</v>
+        <v>0.543</v>
       </c>
       <c r="D19" t="n">
-        <v>0.674</v>
+        <v>0.553</v>
       </c>
       <c r="E19" t="n">
-        <v>0.844</v>
+        <v>0.704</v>
       </c>
       <c r="F19" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.872</v>
       </c>
-      <c r="G19" t="n">
-        <v>0.913</v>
-      </c>
       <c r="H19" t="n">
-        <v>0.908</v>
+        <v>0.779</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ICC_sigma_light</t>
+          <t>ICC_weight_median_sedentairy</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.353</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.674</v>
+        <v>0.768</v>
       </c>
       <c r="D20" t="n">
-        <v>0.678</v>
+        <v>0.827</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.749</v>
       </c>
       <c r="F20" t="n">
-        <v>0.874</v>
+        <v>0.708</v>
       </c>
       <c r="G20" t="n">
-        <v>0.951</v>
+        <v>0.785</v>
       </c>
       <c r="H20" t="n">
-        <v>0.901</v>
+        <v>0.585</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ICC_gini_light</t>
+          <t>ICC_alfa_sedentairy</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.275</v>
+        <v>0.473</v>
       </c>
       <c r="C21" t="n">
-        <v>0.609</v>
+        <v>0.642</v>
       </c>
       <c r="D21" t="n">
-        <v>0.675</v>
+        <v>0.428</v>
       </c>
       <c r="E21" t="n">
-        <v>0.669</v>
+        <v>0.702</v>
       </c>
       <c r="F21" t="n">
-        <v>0.706</v>
+        <v>0.767</v>
       </c>
       <c r="G21" t="n">
-        <v>0.721</v>
+        <v>0.777</v>
       </c>
       <c r="H21" t="n">
-        <v>0.768</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ICC_light_median_length</t>
+          <t>ICC_sigma_sedentairy</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.22</v>
+        <v>0.411</v>
       </c>
       <c r="C22" t="n">
-        <v>0.428</v>
+        <v>0.616</v>
       </c>
       <c r="D22" t="n">
-        <v>0.594</v>
+        <v>0.446</v>
       </c>
       <c r="E22" t="n">
-        <v>0.745</v>
+        <v>0.776</v>
       </c>
       <c r="F22" t="n">
-        <v>0.668</v>
+        <v>0.899</v>
       </c>
       <c r="G22" t="n">
-        <v>0.66</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0.763</v>
+        <v>0.712</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ICC_epochs_light_average_length</t>
+          <t>ICC_gini_sedentairy</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.44</v>
+        <v>0.255</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.639</v>
       </c>
       <c r="D23" t="n">
-        <v>0.634</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>0.845</v>
+        <v>0.556</v>
       </c>
       <c r="F23" t="n">
-        <v>0.834</v>
+        <v>0.511</v>
       </c>
       <c r="G23" t="n">
-        <v>0.835</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0.838</v>
+        <v>0.585</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ICC_epochs_light_max_length</t>
+          <t>ICC_sedentairy_median_length</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.03</v>
+        <v>0.363</v>
       </c>
       <c r="C24" t="n">
-        <v>0.283</v>
+        <v>0.463</v>
       </c>
       <c r="D24" t="n">
-        <v>0.348</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.468</v>
+        <v>0.824</v>
       </c>
       <c r="F24" t="n">
-        <v>0.638</v>
+        <v>0.91</v>
       </c>
       <c r="G24" t="n">
-        <v>0.667</v>
+        <v>0.851</v>
       </c>
       <c r="H24" t="n">
-        <v>0.669</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ICC_moderate_count</t>
+          <t>ICC_epochs_sedentairy_average_length</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.361</v>
+        <v>0.607</v>
       </c>
       <c r="C25" t="n">
-        <v>0.536</v>
+        <v>0.734</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.831</v>
       </c>
       <c r="E25" t="n">
-        <v>0.707</v>
+        <v>0.861</v>
       </c>
       <c r="F25" t="n">
-        <v>0.852</v>
+        <v>0.896</v>
       </c>
       <c r="G25" t="n">
-        <v>0.827</v>
+        <v>0.868</v>
       </c>
       <c r="H25" t="n">
-        <v>0.734</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ICC_moderate_perc</t>
+          <t>ICC_epochs_sedentairy_max_length</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.284</v>
+        <v>0.446</v>
       </c>
       <c r="C26" t="n">
-        <v>0.474</v>
+        <v>0.645</v>
       </c>
       <c r="D26" t="n">
-        <v>0.501</v>
+        <v>0.68</v>
       </c>
       <c r="E26" t="n">
-        <v>0.606</v>
+        <v>0.658</v>
       </c>
       <c r="F26" t="n">
-        <v>0.744</v>
+        <v>0.608</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8</v>
+        <v>0.719</v>
       </c>
       <c r="H26" t="n">
-        <v>0.722</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ICC_epochs_moderate_perc</t>
+          <t>ICC_light_count</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.351</v>
+        <v>0.346</v>
       </c>
       <c r="C27" t="n">
-        <v>0.533</v>
+        <v>0.761</v>
       </c>
       <c r="D27" t="n">
-        <v>0.529</v>
+        <v>0.601</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.695</v>
       </c>
       <c r="F27" t="n">
-        <v>0.794</v>
+        <v>0.737</v>
       </c>
       <c r="G27" t="n">
-        <v>0.856</v>
+        <v>0.851</v>
       </c>
       <c r="H27" t="n">
-        <v>0.776</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ICC_weight_median_moderate</t>
+          <t>ICC_light_perc</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.806</v>
+        <v>0.587</v>
       </c>
       <c r="C28" t="n">
-        <v>0.863</v>
+        <v>0.8</v>
       </c>
       <c r="D28" t="n">
-        <v>0.792</v>
+        <v>0.731</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.867</v>
       </c>
       <c r="F28" t="n">
-        <v>0.925</v>
+        <v>0.886</v>
       </c>
       <c r="G28" t="n">
-        <v>0.918</v>
+        <v>0.897</v>
       </c>
       <c r="H28" t="n">
-        <v>0.785</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ICC_alfa_moderate</t>
+          <t>ICC_epochs_light_perc</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.541</v>
+        <v>0.639</v>
       </c>
       <c r="C29" t="n">
-        <v>0.585</v>
+        <v>0.723</v>
       </c>
       <c r="D29" t="n">
-        <v>0.352</v>
+        <v>0.728</v>
       </c>
       <c r="E29" t="n">
-        <v>0.391</v>
+        <v>0.784</v>
       </c>
       <c r="F29" t="n">
-        <v>0.262</v>
+        <v>0.581</v>
       </c>
       <c r="G29" t="n">
-        <v>0.48</v>
+        <v>0.418</v>
       </c>
       <c r="H29" t="n">
-        <v>0.536</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>ICC_sigma_moderate</t>
+          <t>ICC_weight_median_light</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.486</v>
+        <v>0.251</v>
       </c>
       <c r="C30" t="n">
-        <v>0.667</v>
+        <v>0.6</v>
       </c>
       <c r="D30" t="n">
-        <v>0.43</v>
+        <v>0.58</v>
       </c>
       <c r="E30" t="n">
-        <v>0.514</v>
+        <v>0.791</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3</v>
+        <v>0.826</v>
       </c>
       <c r="G30" t="n">
-        <v>0.431</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0.452</v>
+        <v>0.714</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>ICC_gini_moderate</t>
+          <t>ICC_alfa_light</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.645</v>
+        <v>0.381</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.624</v>
       </c>
       <c r="D31" t="n">
-        <v>0.493</v>
+        <v>0.674</v>
       </c>
       <c r="E31" t="n">
-        <v>0.599</v>
+        <v>0.844</v>
       </c>
       <c r="F31" t="n">
-        <v>0.572</v>
+        <v>0.872</v>
       </c>
       <c r="G31" t="n">
-        <v>0.704</v>
+        <v>0.913</v>
       </c>
       <c r="H31" t="n">
-        <v>0.72</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ICC_moderate_median_length</t>
+          <t>ICC_sigma_light</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.082</v>
+        <v>0.353</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.005</v>
+        <v>0.674</v>
       </c>
       <c r="D32" t="n">
-        <v>0.032</v>
+        <v>0.678</v>
       </c>
       <c r="E32" t="n">
-        <v>0.097</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>0.246</v>
+        <v>0.874</v>
       </c>
       <c r="G32" t="n">
-        <v>0.068</v>
+        <v>0.951</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.109</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ICC_epochs_moderate_average_length</t>
+          <t>ICC_gini_light</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.275</v>
       </c>
       <c r="C33" t="n">
-        <v>0.724</v>
+        <v>0.609</v>
       </c>
       <c r="D33" t="n">
-        <v>0.699</v>
+        <v>0.675</v>
       </c>
       <c r="E33" t="n">
-        <v>0.753</v>
+        <v>0.669</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.706</v>
       </c>
       <c r="G33" t="n">
-        <v>0.843</v>
+        <v>0.721</v>
       </c>
       <c r="H33" t="n">
-        <v>0.86</v>
+        <v>0.768</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ICC_epochs_moderate_max_length</t>
+          <t>ICC_light_median_length</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.727</v>
+        <v>0.22</v>
       </c>
       <c r="C34" t="n">
-        <v>0.659</v>
+        <v>0.428</v>
       </c>
       <c r="D34" t="n">
-        <v>0.618</v>
+        <v>0.594</v>
       </c>
       <c r="E34" t="n">
-        <v>0.65</v>
+        <v>0.745</v>
       </c>
       <c r="F34" t="n">
-        <v>0.845</v>
+        <v>0.668</v>
       </c>
       <c r="G34" t="n">
-        <v>0.885</v>
+        <v>0.66</v>
       </c>
       <c r="H34" t="n">
-        <v>0.901</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ICC_vigorous_count</t>
+          <t>ICC_epochs_light_average_length</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.909</v>
+        <v>0.44</v>
       </c>
       <c r="C35" t="n">
-        <v>0.931</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.923</v>
+        <v>0.634</v>
       </c>
       <c r="E35" t="n">
-        <v>0.946</v>
+        <v>0.845</v>
       </c>
       <c r="F35" t="n">
-        <v>0.649</v>
+        <v>0.834</v>
       </c>
       <c r="G35" t="n">
-        <v>0.446</v>
+        <v>0.835</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.838</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ICC_vigorous_perc</t>
+          <t>ICC_epochs_light_max_length</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.888</v>
+        <v>0.03</v>
       </c>
       <c r="C36" t="n">
-        <v>0.931</v>
+        <v>0.283</v>
       </c>
       <c r="D36" t="n">
-        <v>0.919</v>
+        <v>0.348</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.468</v>
       </c>
       <c r="F36" t="n">
-        <v>0.613</v>
+        <v>0.638</v>
       </c>
       <c r="G36" t="n">
-        <v>0.428</v>
+        <v>0.667</v>
       </c>
       <c r="H36" t="n">
-        <v>0.55</v>
+        <v>0.669</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ICC_epochs_vigorous_perc</t>
+          <t>ICC_moderate_count</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.727</v>
+        <v>0.361</v>
       </c>
       <c r="C37" t="n">
-        <v>0.887</v>
+        <v>0.536</v>
       </c>
       <c r="D37" t="n">
-        <v>0.93</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>0.885</v>
+        <v>0.707</v>
       </c>
       <c r="F37" t="n">
-        <v>0.538</v>
+        <v>0.852</v>
       </c>
       <c r="G37" t="n">
-        <v>0.485</v>
+        <v>0.827</v>
       </c>
       <c r="H37" t="n">
-        <v>0.702</v>
+        <v>0.734</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ICC_weight_median_vigorous</t>
+          <t>ICC_moderate_perc</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.483</v>
+        <v>0.284</v>
       </c>
       <c r="C38" t="n">
-        <v>0.678</v>
+        <v>0.474</v>
       </c>
       <c r="D38" t="n">
-        <v>0.75</v>
+        <v>0.501</v>
       </c>
       <c r="E38" t="n">
-        <v>0.869</v>
+        <v>0.606</v>
       </c>
       <c r="F38" t="n">
-        <v>0.372</v>
+        <v>0.744</v>
       </c>
       <c r="G38" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H38" t="n">
-        <v>0.156</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ICC_alfa_vigorous</t>
+          <t>ICC_epochs_moderate_perc</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.314</v>
+        <v>0.351</v>
       </c>
       <c r="C39" t="n">
-        <v>0.681</v>
+        <v>0.533</v>
       </c>
       <c r="D39" t="n">
-        <v>0.738</v>
+        <v>0.529</v>
       </c>
       <c r="E39" t="n">
-        <v>0.467</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>0.44</v>
+        <v>0.794</v>
       </c>
       <c r="G39" t="n">
-        <v>0.533</v>
+        <v>0.856</v>
       </c>
       <c r="H39" t="n">
-        <v>0.416</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ICC_sigma_vigorous</t>
+          <t>ICC_weight_median_moderate</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.203</v>
+        <v>0.806</v>
       </c>
       <c r="C40" t="n">
-        <v>0.672</v>
+        <v>0.863</v>
       </c>
       <c r="D40" t="n">
-        <v>0.739</v>
+        <v>0.792</v>
       </c>
       <c r="E40" t="n">
-        <v>0.392</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="G40" t="n">
-        <v>0.661</v>
+        <v>0.918</v>
       </c>
       <c r="H40" t="n">
-        <v>0.367</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ICC_gini_vigorous</t>
+          <t>ICC_alfa_moderate</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.469</v>
+        <v>0.541</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.585</v>
       </c>
       <c r="D41" t="n">
-        <v>0.769</v>
+        <v>0.352</v>
       </c>
       <c r="E41" t="n">
-        <v>0.759</v>
+        <v>0.391</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.262</v>
       </c>
       <c r="G41" t="n">
-        <v>0.55</v>
+        <v>0.48</v>
       </c>
       <c r="H41" t="n">
-        <v>0.638</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ICC_vigorous_median_length</t>
+          <t>ICC_sigma_moderate</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.627</v>
+        <v>0.486</v>
       </c>
       <c r="C42" t="n">
-        <v>0.762</v>
+        <v>0.667</v>
       </c>
       <c r="D42" t="n">
-        <v>0.73</v>
+        <v>0.43</v>
       </c>
       <c r="E42" t="n">
-        <v>0.836</v>
+        <v>0.514</v>
       </c>
       <c r="F42" t="n">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.431</v>
       </c>
       <c r="H42" t="n">
-        <v>0.592</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ICC_epochs_vigorous_average_length</t>
+          <t>ICC_gini_moderate</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.636</v>
+        <v>0.645</v>
       </c>
       <c r="C43" t="n">
-        <v>0.772</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.773</v>
+        <v>0.493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.876</v>
+        <v>0.599</v>
       </c>
       <c r="F43" t="n">
-        <v>0.755</v>
+        <v>0.572</v>
       </c>
       <c r="G43" t="n">
-        <v>0.584</v>
+        <v>0.704</v>
       </c>
       <c r="H43" t="n">
-        <v>0.637</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ICC_epochs_vigorous_max_length</t>
+          <t>ICC_moderate_median_length</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.6820000000000001</v>
+        <v>-0.082</v>
       </c>
       <c r="C44" t="n">
-        <v>0.89</v>
+        <v>-0.005</v>
       </c>
       <c r="D44" t="n">
-        <v>0.925</v>
+        <v>0.032</v>
       </c>
       <c r="E44" t="n">
-        <v>0.973</v>
+        <v>0.097</v>
       </c>
       <c r="F44" t="n">
-        <v>0.668</v>
+        <v>0.246</v>
       </c>
       <c r="G44" t="n">
-        <v>0.426</v>
+        <v>0.068</v>
       </c>
       <c r="H44" t="n">
-        <v>0.515</v>
+        <v>-0.109</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ICC_Sample_entropy</t>
+          <t>ICC_epochs_moderate_average_length</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.631</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.724</v>
       </c>
       <c r="D45" t="n">
-        <v>0.891</v>
+        <v>0.699</v>
       </c>
       <c r="E45" t="n">
-        <v>0.868</v>
+        <v>0.753</v>
       </c>
       <c r="F45" t="n">
-        <v>0.887</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>0.834</v>
+        <v>0.843</v>
       </c>
       <c r="H45" t="n">
-        <v>0.773</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ICC_info_entropy</t>
+          <t>ICC_epochs_moderate_max_length</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.671</v>
+        <v>0.727</v>
       </c>
       <c r="C46" t="n">
-        <v>0.621</v>
+        <v>0.659</v>
       </c>
       <c r="D46" t="n">
-        <v>0.737</v>
+        <v>0.618</v>
       </c>
       <c r="E46" t="n">
-        <v>0.656</v>
+        <v>0.65</v>
       </c>
       <c r="F46" t="n">
-        <v>0.643</v>
+        <v>0.845</v>
       </c>
       <c r="G46" t="n">
-        <v>0.731</v>
+        <v>0.885</v>
       </c>
       <c r="H46" t="n">
-        <v>0.774</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>ICC_PLZC</t>
+          <t>ICC_vigorous_count</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.537</v>
+        <v>0.909</v>
       </c>
       <c r="C47" t="n">
-        <v>0.725</v>
+        <v>0.931</v>
       </c>
       <c r="D47" t="n">
-        <v>0.825</v>
+        <v>0.923</v>
       </c>
       <c r="E47" t="n">
-        <v>0.793</v>
+        <v>0.946</v>
       </c>
       <c r="F47" t="n">
-        <v>0.823</v>
+        <v>0.649</v>
       </c>
       <c r="G47" t="n">
-        <v>0.743</v>
+        <v>0.446</v>
       </c>
       <c r="H47" t="n">
-        <v>0.657</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>ICC_pijn_gem</t>
+          <t>ICC_vigorous_perc</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.795</v>
+        <v>0.888</v>
       </c>
       <c r="C48" t="n">
-        <v>0.729</v>
+        <v>0.931</v>
       </c>
       <c r="D48" t="n">
-        <v>0.743</v>
+        <v>0.919</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>0.844</v>
+        <v>0.613</v>
       </c>
       <c r="G48" t="n">
-        <v>0.908</v>
+        <v>0.428</v>
       </c>
       <c r="H48" t="n">
-        <v>0.888</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>ICC_pijn_std</t>
+          <t>ICC_epochs_vigorous_perc</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.438</v>
+        <v>0.727</v>
       </c>
       <c r="C49" t="n">
-        <v>0.473</v>
+        <v>0.887</v>
       </c>
       <c r="D49" t="n">
-        <v>0.459</v>
+        <v>0.93</v>
       </c>
       <c r="E49" t="n">
-        <v>0.617</v>
+        <v>0.885</v>
       </c>
       <c r="F49" t="n">
-        <v>0.606</v>
+        <v>0.538</v>
       </c>
       <c r="G49" t="n">
-        <v>0.831</v>
+        <v>0.485</v>
       </c>
       <c r="H49" t="n">
-        <v>0.864</v>
+        <v>0.702</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
+          <t>ICC_weight_median_vigorous</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.869</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>ICC_alfa_vigorous</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.681</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.416</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>ICC_sigma_vigorous</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.739</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.367</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>ICC_gini_vigorous</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.769</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.638</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>ICC_vigorous_median_length</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.627</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.592</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>ICC_epochs_vigorous_average_length</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.773</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.876</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.584</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.637</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>ICC_epochs_vigorous_max_length</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.515</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>ICC_Sample_entropy_m2_tau1</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.633</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.887</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.887</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.783</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>ICC_Sample_entropy_m3_tau1</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.621</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.876</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.822</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.764</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>ICC_Sample_entropy_m4_tau1</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.847</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.737</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>ICC_info_entropy</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.621</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.731</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.774</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>ICC_PLZC_dalay1_dim2</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.537</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.657</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>ICC_PLZC_dealy2_dim2</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.537</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.657</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>ICC_PLZC_dealy2_dim3</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.537</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.657</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>ICC_PLZC_dealy3_dim3</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.537</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.657</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>ICC_pijn_gem</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.888</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>ICC_pijn_std</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.864</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
           <t>ICC_pijn_max</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="B67" t="n">
         <v>0.547</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C67" t="n">
         <v>0.44</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D67" t="n">
         <v>0.479</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E67" t="n">
         <v>0.633</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F67" t="n">
         <v>0.6879999999999999</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G67" t="n">
         <v>0.84</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H67" t="n">
         <v>0.82</v>
       </c>
     </row>

--- a/Results/ICC_waardes.xlsx
+++ b/Results/ICC_waardes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2003,25 +2003,25 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.633</v>
+        <v>0.631</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.887</v>
+        <v>0.891</v>
       </c>
       <c r="E57" t="n">
-        <v>0.865</v>
+        <v>0.868</v>
       </c>
       <c r="F57" t="n">
         <v>0.887</v>
       </c>
       <c r="G57" t="n">
-        <v>0.835</v>
+        <v>0.834</v>
       </c>
       <c r="H57" t="n">
-        <v>0.783</v>
+        <v>0.773</v>
       </c>
     </row>
     <row r="58">
@@ -2031,25 +2031,25 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.621</v>
+        <v>0.648</v>
       </c>
       <c r="C58" t="n">
-        <v>0.842</v>
+        <v>0.819</v>
       </c>
       <c r="D58" t="n">
-        <v>0.876</v>
+        <v>0.877</v>
       </c>
       <c r="E58" t="n">
-        <v>0.822</v>
+        <v>0.843</v>
       </c>
       <c r="F58" t="n">
-        <v>0.832</v>
+        <v>0.867</v>
       </c>
       <c r="G58" t="n">
-        <v>0.823</v>
+        <v>0.83</v>
       </c>
       <c r="H58" t="n">
-        <v>0.764</v>
+        <v>0.778</v>
       </c>
     </row>
     <row r="59">
@@ -2059,143 +2059,143 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.601</v>
+        <v>0.644</v>
       </c>
       <c r="C59" t="n">
-        <v>0.844</v>
+        <v>0.83</v>
       </c>
       <c r="D59" t="n">
-        <v>0.847</v>
+        <v>0.865</v>
       </c>
       <c r="E59" t="n">
-        <v>0.775</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="F59" t="n">
-        <v>0.788</v>
+        <v>0.829</v>
       </c>
       <c r="G59" t="n">
-        <v>0.806</v>
+        <v>0.801</v>
       </c>
       <c r="H59" t="n">
-        <v>0.737</v>
+        <v>0.734</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>ICC_info_entropy</t>
+          <t>ICC_Sample_entropy_m2_tau2</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.671</v>
+        <v>0.633</v>
       </c>
       <c r="C60" t="n">
-        <v>0.621</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.737</v>
+        <v>0.887</v>
       </c>
       <c r="E60" t="n">
-        <v>0.656</v>
+        <v>0.865</v>
       </c>
       <c r="F60" t="n">
-        <v>0.643</v>
+        <v>0.887</v>
       </c>
       <c r="G60" t="n">
-        <v>0.731</v>
+        <v>0.835</v>
       </c>
       <c r="H60" t="n">
-        <v>0.774</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>ICC_PLZC_dalay1_dim2</t>
+          <t>ICC_Sample_entropy_m3_tau2</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.537</v>
+        <v>0.621</v>
       </c>
       <c r="C61" t="n">
-        <v>0.725</v>
+        <v>0.842</v>
       </c>
       <c r="D61" t="n">
-        <v>0.825</v>
+        <v>0.876</v>
       </c>
       <c r="E61" t="n">
-        <v>0.793</v>
+        <v>0.822</v>
       </c>
       <c r="F61" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="G61" t="n">
         <v>0.823</v>
       </c>
-      <c r="G61" t="n">
-        <v>0.743</v>
-      </c>
       <c r="H61" t="n">
-        <v>0.657</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>ICC_PLZC_dealy2_dim2</t>
+          <t>ICC_Sample_entropy_m4_tau2</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.537</v>
+        <v>0.601</v>
       </c>
       <c r="C62" t="n">
-        <v>0.725</v>
+        <v>0.844</v>
       </c>
       <c r="D62" t="n">
-        <v>0.825</v>
+        <v>0.847</v>
       </c>
       <c r="E62" t="n">
-        <v>0.793</v>
+        <v>0.775</v>
       </c>
       <c r="F62" t="n">
-        <v>0.823</v>
+        <v>0.788</v>
       </c>
       <c r="G62" t="n">
-        <v>0.743</v>
+        <v>0.806</v>
       </c>
       <c r="H62" t="n">
-        <v>0.657</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>ICC_PLZC_dealy2_dim3</t>
+          <t>ICC_info_entropy</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.537</v>
+        <v>0.671</v>
       </c>
       <c r="C63" t="n">
-        <v>0.725</v>
+        <v>0.621</v>
       </c>
       <c r="D63" t="n">
-        <v>0.825</v>
+        <v>0.737</v>
       </c>
       <c r="E63" t="n">
-        <v>0.793</v>
+        <v>0.656</v>
       </c>
       <c r="F63" t="n">
-        <v>0.823</v>
+        <v>0.643</v>
       </c>
       <c r="G63" t="n">
-        <v>0.743</v>
+        <v>0.731</v>
       </c>
       <c r="H63" t="n">
-        <v>0.657</v>
+        <v>0.774</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>ICC_PLZC_dealy3_dim3</t>
+          <t>ICC_PLZC_dalay1_dim2</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2223,84 +2223,168 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>ICC_pijn_gem</t>
+          <t>ICC_PLZC_dealy2_dim2</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.795</v>
+        <v>0.537</v>
       </c>
       <c r="C65" t="n">
-        <v>0.729</v>
+        <v>0.725</v>
       </c>
       <c r="D65" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="G65" t="n">
         <v>0.743</v>
       </c>
-      <c r="E65" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.844</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.908</v>
-      </c>
       <c r="H65" t="n">
-        <v>0.888</v>
+        <v>0.657</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>ICC_pijn_std</t>
+          <t>ICC_PLZC_dealy2_dim3</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.438</v>
+        <v>0.537</v>
       </c>
       <c r="C66" t="n">
-        <v>0.473</v>
+        <v>0.725</v>
       </c>
       <c r="D66" t="n">
-        <v>0.459</v>
+        <v>0.825</v>
       </c>
       <c r="E66" t="n">
-        <v>0.617</v>
+        <v>0.793</v>
       </c>
       <c r="F66" t="n">
-        <v>0.606</v>
+        <v>0.823</v>
       </c>
       <c r="G66" t="n">
-        <v>0.831</v>
+        <v>0.743</v>
       </c>
       <c r="H66" t="n">
-        <v>0.864</v>
+        <v>0.657</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
+          <t>ICC_PLZC_dealy3_dim3</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.537</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.657</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>ICC_pijn_gem</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.888</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>ICC_pijn_std</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.864</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
           <t>ICC_pijn_max</t>
         </is>
       </c>
-      <c r="B67" t="n">
+      <c r="B70" t="n">
         <v>0.547</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C70" t="n">
         <v>0.44</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D70" t="n">
         <v>0.479</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E70" t="n">
         <v>0.633</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F70" t="n">
         <v>0.6879999999999999</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G70" t="n">
         <v>0.84</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H70" t="n">
         <v>0.82</v>
       </c>
     </row>
